--- a/MVN/src/test/resources/data/TestScript.xlsx
+++ b/MVN/src/test/resources/data/TestScript.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{868C8A1B-8022-4245-AC3C-A3A3A0B1017B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanke\git\CRM\MVN\src\test\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA995EE-29DC-4767-A407-DD8110F8E123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10704" windowHeight="2124" activeTab="1" xr2:uid="{CED7A5C2-78D8-4414-A676-533F57DD0550}"/>
+    <workbookView xWindow="3780" yWindow="828" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{CED7A5C2-78D8-4414-A676-533F57DD0550}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCustomer" sheetId="1" r:id="rId1"/>
     <sheet name="CreatePriceBook" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateCampaign" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboards" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CustomerName</t>
   </si>
@@ -55,19 +61,63 @@
   </si>
   <si>
     <t>Romeo Juliet</t>
+  </si>
+  <si>
+    <t>CampaignName</t>
+  </si>
+  <si>
+    <t>Maven test1</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>05/20/2025</t>
+  </si>
+  <si>
+    <t>06/20/2025</t>
+  </si>
+  <si>
+    <t>Component Name</t>
+  </si>
+  <si>
+    <t>New Component</t>
+  </si>
+  <si>
+    <t>Select report</t>
+  </si>
+  <si>
+    <t>Key Accounts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0DBF40-A0FC-4D27-A393-C59793D61CE1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -479,4 +531,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83301037-1046-4DDC-82EE-09F2DFD60675}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20557BE-3EB7-4B54-A30F-9720F8C0B380}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>